--- a/samples/meta_stories_reels_demo.xlsx
+++ b/samples/meta_stories_reels_demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="123">
   <si>
     <t>Campaign Name</t>
   </si>
@@ -49,76 +49,85 @@
     <t>Call to Action</t>
   </si>
   <si>
-    <t>Stories Campaign 1</t>
-  </si>
-  <si>
-    <t>Stories Campaign 2</t>
-  </si>
-  <si>
-    <t>Stories Campaign 3</t>
-  </si>
-  <si>
-    <t>Stories Campaign 4</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 1</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 2</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 3</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 4</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 5</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 6</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 7</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 8</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 9</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 10</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 11</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 12</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 13</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 14</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 15</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 16</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 17</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 18</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 19</t>
-  </si>
-  <si>
-    <t>Stories Ad Set 20</t>
+    <t>Stories - Instagram</t>
+  </si>
+  <si>
+    <t>Stories - Facebook</t>
+  </si>
+  <si>
+    <t>Stories - Messenger</t>
+  </si>
+  <si>
+    <t>Stories - Reels</t>
+  </si>
+  <si>
+    <t>Stories - Instagram Reels</t>
+  </si>
+  <si>
+    <t>Stories - Facebook Stories</t>
+  </si>
+  <si>
+    <t>Stories - Instagram Stories</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 1</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 2</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 3</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 4</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 5</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 6</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 7</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 8</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 9</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 10</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 11</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 12</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 13</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 14</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 15</t>
+  </si>
+  <si>
+    <t>Stories Campaign - Ad Set 16</t>
+  </si>
+  <si>
+    <t>Summer Sale Stories</t>
+  </si>
+  <si>
+    <t>App Launch Stories</t>
+  </si>
+  <si>
+    <t>Fitness Challenge Stories</t>
+  </si>
+  <si>
+    <t>Product Launch Stories</t>
   </si>
   <si>
     <t>Stories Ad 1</t>
@@ -184,58 +193,196 @@
     <t>ACTIVE</t>
   </si>
   <si>
+    <t>Instagram Reels</t>
+  </si>
+  <si>
+    <t>Facebook Stories</t>
+  </si>
+  <si>
     <t>Instagram Stories</t>
   </si>
   <si>
-    <t>https://example.com/stories/vertical_1080x1920.mp4</t>
-  </si>
-  <si>
-    <t>https://example.com/stories/promo.mp4</t>
-  </si>
-  <si>
-    <t>https://example.com/stories/arrivals.mp4</t>
-  </si>
-  <si>
-    <t>https://example.com/stories/sale.mp4</t>
+    <t>https://media.fashionista.com/new/vertical-9x16-story-1.mp4</t>
+  </si>
+  <si>
+    <t>https://media.fitpass.com/join/vertical-9x16-story-2.mp4</t>
+  </si>
+  <si>
+    <t>https://media.cookmaster.com/lessons/vertical-9x16-story-3.mp4</t>
+  </si>
+  <si>
+    <t>https://media.wanderlust.com/deals/vertical-9x16-story-4.mp4</t>
+  </si>
+  <si>
+    <t>https://media.techdeals.com/flash/vertical-9x16-story-5.mp4</t>
+  </si>
+  <si>
+    <t>https://media.glowskin.com/shop/vertical-9x16-story-6.mp4</t>
+  </si>
+  <si>
+    <t>https://media.guitarfast.com/start/vertical-9x16-story-7.mp4</t>
+  </si>
+  <si>
+    <t>https://media.bizbuzz.com/tools/vertical-9x16-story-8.mp4</t>
+  </si>
+  <si>
+    <t>https://media.fashionista.com/new/vertical-9x16-story-9.mp4</t>
+  </si>
+  <si>
+    <t>https://media.fitpass.com/join/vertical-9x16-story-10.mp4</t>
+  </si>
+  <si>
+    <t>https://media.cookmaster.com/lessons/vertical-9x16-story-11.mp4</t>
+  </si>
+  <si>
+    <t>https://media.wanderlust.com/deals/vertical-9x16-story-12.mp4</t>
+  </si>
+  <si>
+    <t>https://media.techdeals.com/flash/vertical-9x16-story-13.mp4</t>
+  </si>
+  <si>
+    <t>https://media.glowskin.com/shop/vertical-9x16-story-14.mp4</t>
+  </si>
+  <si>
+    <t>https://media.guitarfast.com/start/vertical-9x16-story-15.mp4</t>
+  </si>
+  <si>
+    <t>https://media.bizbuzz.com/tools/vertical-9x16-story-16.mp4</t>
+  </si>
+  <si>
+    <t>https://media.summershop.com/vertical-story-sale.mp4</t>
+  </si>
+  <si>
+    <t>https://media.fitchallenge.com/vertical-story.mp4</t>
+  </si>
+  <si>
+    <t>https://media.newproduct.com/vertical-launch.mp4</t>
   </si>
   <si>
     <t>VIDEO</t>
   </si>
   <si>
-    <t>Shop Now</t>
-  </si>
-  <si>
-    <t>Discover Amazing New Products</t>
-  </si>
-  <si>
-    <t>Limited Time Offer</t>
-  </si>
-  <si>
-    <t>New Arrivals</t>
-  </si>
-  <si>
-    <t>MEGA SALE NOW!!!</t>
-  </si>
-  <si>
-    <t>Transform your style with our latest collection</t>
-  </si>
-  <si>
-    <t>Exclusive deals you won't find anywhere else</t>
-  </si>
-  <si>
-    <t>Save big on your favorite items today only</t>
-  </si>
-  <si>
-    <t>Check out what's trending now</t>
-  </si>
-  <si>
-    <t>BIGGEST DISCOUNTS EVER!!! DON'T MISS OUT!!!</t>
-  </si>
-  <si>
-    <t>https://example.com/mobile</t>
+    <t>Shop New Styles</t>
+  </si>
+  <si>
+    <t>Get Fit Today</t>
+  </si>
+  <si>
+    <t>Learn to Cook</t>
+  </si>
+  <si>
+    <t>Travel the World</t>
+  </si>
+  <si>
+    <t>Save on Tech</t>
+  </si>
+  <si>
+    <t>Glow Your Skin</t>
+  </si>
+  <si>
+    <t>Master Guitar</t>
+  </si>
+  <si>
+    <t>Grow Your Biz</t>
+  </si>
+  <si>
+    <t>Summer Mega Sale Event Now On</t>
+  </si>
+  <si>
+    <t>New App Launch</t>
+  </si>
+  <si>
+    <t>Join Challenge</t>
+  </si>
+  <si>
+    <t>AMAZING NEW PRODUCT!!!</t>
+  </si>
+  <si>
+    <t>Discover the latest fashion trends. Free shipping on orders over $50!</t>
+  </si>
+  <si>
+    <t>Join 100K+ members transforming their bodies. First month free!</t>
+  </si>
+  <si>
+    <t>Master chef recipes in your kitchen. 500+ video tutorials included.</t>
+  </si>
+  <si>
+    <t>Exclusive travel deals to 150+ destinations. Book your adventure now!</t>
+  </si>
+  <si>
+    <t>Latest gadgets at unbeatable prices. Limited time flash sale!</t>
+  </si>
+  <si>
+    <t>Natural skincare that works. Dermatologist-tested and approved.</t>
+  </si>
+  <si>
+    <t>Learn guitar in 30 days with step-by-step lessons from pros.</t>
+  </si>
+  <si>
+    <t>Marketing tools that actually work. Join 50K+ growing businesses.</t>
+  </si>
+  <si>
+    <t>Up to 70% off everything! Don't miss our biggest sale of the year.</t>
+  </si>
+  <si>
+    <t>Download our new app and get 30% off your first order. Available on iOS and Android.</t>
+  </si>
+  <si>
+    <t>30-day fitness challenge starting now. Transform your body and win prizes!</t>
+  </si>
+  <si>
+    <t>GET YOUR HANDS ON THE HOTTEST NEW PRODUCT NOW!!! LIMITED STOCK AVAILABLE!!!</t>
+  </si>
+  <si>
+    <t>https://fashionista.com/new</t>
+  </si>
+  <si>
+    <t>https://fitpass.com/join</t>
+  </si>
+  <si>
+    <t>https://cookmaster.com/lessons</t>
+  </si>
+  <si>
+    <t>https://wanderlust.com/deals</t>
+  </si>
+  <si>
+    <t>https://techdeals.com/flash</t>
+  </si>
+  <si>
+    <t>https://glowskin.com/shop</t>
+  </si>
+  <si>
+    <t>https://guitarfast.com/start</t>
+  </si>
+  <si>
+    <t>https://bizbuzz.com/tools</t>
+  </si>
+  <si>
+    <t>https://summershop.com/sale</t>
+  </si>
+  <si>
+    <t>https://mobileapp.com/download</t>
+  </si>
+  <si>
+    <t>https://newproduct.com/buy</t>
+  </si>
+  <si>
+    <t>WATCH_MORE</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
   </si>
   <si>
     <t>SHOP_NOW</t>
+  </si>
+  <si>
+    <t>LEARN_MORE</t>
+  </si>
+  <si>
+    <t>SIGN_UP</t>
+  </si>
+  <si>
+    <t>INSTALL_APP</t>
   </si>
 </sst>
 </file>
@@ -652,139 +799,139 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -792,34 +939,34 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -827,139 +974,139 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -967,34 +1114,34 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1002,139 +1149,139 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1142,34 +1289,34 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="K16" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1177,168 +1324,168 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="K19" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="K21" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
